--- a/WebContent/download/用户信息.xlsx
+++ b/WebContent/download/用户信息.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -35,30 +35,6 @@
   </si>
   <si>
     <t>address</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>男</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>上海</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>女</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>北京</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -405,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -430,40 +406,6 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D2">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
